--- a/UNIX_junior.xlsx
+++ b/UNIX_junior.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\it\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Documents\GitHub\Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F4273A-7384-4144-BADB-D5E54E714B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9F3F3B-E82B-44CA-BFBE-06DA0EC5E545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C81E76-7942-424A-A782-B9136A08B329}"/>
   </bookViews>
@@ -960,11 +960,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -973,12 +979,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B6B0F9-3EC2-074C-85B3-B3E58A629258}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1313,14 +1313,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1508,7 +1508,7 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="16" t="s">
         <v>17</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1601,7 +1601,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="13" t="s">
         <v>28</v>
       </c>
@@ -1610,7 +1610,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -1691,7 +1691,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -1774,7 +1774,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="28"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="13" t="s">
         <v>48</v>
       </c>
@@ -1783,7 +1783,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="24"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="16" t="s">
         <v>57</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -1937,7 +1937,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="28"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="13" t="s">
         <v>66</v>
       </c>
@@ -1946,7 +1946,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -2002,7 +2002,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="24"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="16" t="s">
         <v>72</v>
       </c>
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -2075,14 +2075,14 @@
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="28"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -2161,14 +2161,14 @@
       <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="24"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="22" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="15" t="s">
@@ -2209,7 +2209,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="24"/>
+      <c r="A97" s="26"/>
       <c r="B97" s="16" t="s">
         <v>101</v>
       </c>
@@ -2219,6 +2219,9 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
+      <c r="B98" s="1">
+        <v>123</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
@@ -4926,17 +4929,17 @@
     <row r="1000" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A81:A92"/>
-    <mergeCell ref="A93:A97"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A40:A48"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A81:A92"/>
+    <mergeCell ref="A93:A97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/UNIX_junior.xlsx
+++ b/UNIX_junior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Documents\GitHub\Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9F3F3B-E82B-44CA-BFBE-06DA0EC5E545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E8C87-D0DB-4735-809E-EB85C99C6445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C81E76-7942-424A-A782-B9136A08B329}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Основы bash :</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>https://andreyex.ru/linux/komanda-uname-v-linux/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Василиса </t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1301,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2225,9 +2228,15 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
+      <c r="B99" s="1">
+        <v>123</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
+      <c r="B100" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>

--- a/UNIX_junior.xlsx
+++ b/UNIX_junior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Documents\GitHub\Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E8C87-D0DB-4735-809E-EB85C99C6445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396B0B5-01FB-4917-BF78-3EB0B822BEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C81E76-7942-424A-A782-B9136A08B329}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Основы bash :</t>
   </si>
@@ -653,9 +653,6 @@
   </si>
   <si>
     <t>https://andreyex.ru/linux/komanda-uname-v-linux/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Василиса </t>
   </si>
 </sst>
 </file>
@@ -963,17 +960,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -982,6 +973,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1301,7 +1298,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="B98" sqref="B98:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1316,14 +1313,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1511,7 +1508,7 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="16" t="s">
         <v>17</v>
       </c>
@@ -1521,7 +1518,7 @@
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1604,7 +1601,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="13" t="s">
         <v>28</v>
       </c>
@@ -1613,7 +1610,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -1694,7 +1691,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="26"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1703,7 +1700,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -1777,7 +1774,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="24"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="13" t="s">
         <v>48</v>
       </c>
@@ -1786,7 +1783,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -1866,7 +1863,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="26"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="16" t="s">
         <v>57</v>
       </c>
@@ -1875,7 +1872,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="27" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -1940,7 +1937,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="24"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="13" t="s">
         <v>66</v>
       </c>
@@ -1949,7 +1946,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -2005,7 +2002,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="26"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="16" t="s">
         <v>72</v>
       </c>
@@ -2017,7 +2014,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="27" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -2078,14 +2075,14 @@
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="24"/>
+      <c r="A80" s="28"/>
       <c r="B80" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -2164,14 +2161,14 @@
       <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="26"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="15" t="s">
@@ -2212,7 +2209,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="26"/>
+      <c r="A97" s="24"/>
       <c r="B97" s="16" t="s">
         <v>101</v>
       </c>
@@ -2222,21 +2219,12 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="1">
-        <v>123</v>
-      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="1">
-        <v>123</v>
-      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="1" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
@@ -4938,17 +4926,17 @@
     <row r="1000" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A81:A92"/>
+    <mergeCell ref="A93:A97"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A40:A48"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A81:A92"/>
-    <mergeCell ref="A93:A97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/UNIX_junior.xlsx
+++ b/UNIX_junior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Documents\GitHub\Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396B0B5-01FB-4917-BF78-3EB0B822BEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4E4821-8ED8-479A-9D50-97F69A31B295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C81E76-7942-424A-A782-B9136A08B329}"/>
   </bookViews>
@@ -960,11 +960,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -973,12 +979,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B6B0F9-3EC2-074C-85B3-B3E58A629258}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98:B100"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1313,14 +1313,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1508,7 +1508,7 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="16" t="s">
         <v>17</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1601,7 +1601,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="13" t="s">
         <v>28</v>
       </c>
@@ -1610,7 +1610,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -1691,7 +1691,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -1774,7 +1774,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="28"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="13" t="s">
         <v>48</v>
       </c>
@@ -1783,7 +1783,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="24"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="16" t="s">
         <v>57</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -1893,7 +1893,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -1937,7 +1937,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="28"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="13" t="s">
         <v>66</v>
       </c>
@@ -1946,7 +1946,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -2002,7 +2002,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="24"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="16" t="s">
         <v>72</v>
       </c>
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -2075,14 +2075,14 @@
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="28"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -2161,14 +2161,14 @@
       <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="24"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="22" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="15" t="s">
@@ -2209,7 +2209,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="24"/>
+      <c r="A97" s="26"/>
       <c r="B97" s="16" t="s">
         <v>101</v>
       </c>
@@ -4926,17 +4926,17 @@
     <row r="1000" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A81:A92"/>
-    <mergeCell ref="A93:A97"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A40:A48"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A81:A92"/>
+    <mergeCell ref="A93:A97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/UNIX_junior.xlsx
+++ b/UNIX_junior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Documents\GitHub\Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4E4821-8ED8-479A-9D50-97F69A31B295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B45201-1CF2-4CE6-9E75-0D51E6379808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C81E76-7942-424A-A782-B9136A08B329}"/>
   </bookViews>
@@ -720,7 +720,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,6 +741,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -960,17 +966,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -979,6 +979,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1298,7 +1307,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1313,14 +1322,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1508,7 +1517,7 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="16" t="s">
         <v>17</v>
       </c>
@@ -1518,7 +1527,7 @@
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1601,7 +1610,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="13" t="s">
         <v>28</v>
       </c>
@@ -1610,7 +1619,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -1691,7 +1700,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="26"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1700,7 +1709,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -1774,7 +1783,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="24"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="13" t="s">
         <v>48</v>
       </c>
@@ -1783,7 +1792,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -1863,7 +1872,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="26"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="16" t="s">
         <v>57</v>
       </c>
@@ -1872,7 +1881,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="27" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -1902,7 +1911,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -1937,7 +1946,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="24"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="13" t="s">
         <v>66</v>
       </c>
@@ -1946,7 +1955,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -2002,7 +2011,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="26"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="16" t="s">
         <v>72</v>
       </c>
@@ -2014,7 +2023,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="27" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -2075,14 +2084,14 @@
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="24"/>
+      <c r="A80" s="28"/>
       <c r="B80" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -2161,14 +2170,14 @@
       <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="26"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="15" t="s">
@@ -2209,7 +2218,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="26"/>
+      <c r="A97" s="24"/>
       <c r="B97" s="16" t="s">
         <v>101</v>
       </c>
@@ -4926,17 +4935,17 @@
     <row r="1000" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A81:A92"/>
+    <mergeCell ref="A93:A97"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A40:A48"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A81:A92"/>
-    <mergeCell ref="A93:A97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/UNIX_junior.xlsx
+++ b/UNIX_junior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Documents\GitHub\Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B45201-1CF2-4CE6-9E75-0D51E6379808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E79958-282C-477E-8719-ADCF71B3CEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C81E76-7942-424A-A782-B9136A08B329}"/>
   </bookViews>
@@ -909,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -966,11 +966,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -981,13 +990,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1322,14 +1325,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1341,7 +1344,7 @@
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +1354,7 @@
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1361,7 +1364,7 @@
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1376,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="12" t="s">
         <v>103</v>
       </c>
@@ -1385,7 +1388,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
@@ -1395,7 +1398,7 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
@@ -1405,7 +1408,7 @@
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1417,7 +1420,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
@@ -1427,7 +1430,7 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
@@ -1437,7 +1440,7 @@
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
@@ -1447,7 +1450,7 @@
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="12" t="s">
         <v>174</v>
       </c>
@@ -1457,7 +1460,7 @@
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
@@ -1467,7 +1470,7 @@
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
@@ -1477,7 +1480,7 @@
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
@@ -1487,7 +1490,7 @@
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
@@ -1497,7 +1500,7 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
@@ -1507,7 +1510,7 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +1520,7 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="16" t="s">
         <v>17</v>
       </c>
@@ -1527,7 +1530,7 @@
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1538,7 +1541,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1547,7 +1550,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1556,7 +1559,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1565,7 +1568,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
@@ -1574,7 +1577,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
@@ -1583,7 +1586,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
@@ -1592,7 +1595,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1601,7 +1604,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1610,7 +1613,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="13" t="s">
         <v>28</v>
       </c>
@@ -1619,7 +1622,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -1630,7 +1633,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1639,7 +1642,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1648,7 +1651,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1657,7 +1660,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="12" t="s">
         <v>34</v>
       </c>
@@ -1670,7 +1673,7 @@
       <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>35</v>
       </c>
@@ -1682,7 +1685,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1691,7 +1694,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1700,7 +1703,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1709,7 +1712,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -1720,7 +1723,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1729,7 +1732,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1738,7 +1741,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1747,7 +1750,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -1756,7 +1759,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
@@ -1765,7 +1768,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
@@ -1774,7 +1777,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -1783,7 +1786,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="28"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="13" t="s">
         <v>48</v>
       </c>
@@ -1792,7 +1795,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -1803,7 +1806,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="12" t="s">
         <v>51</v>
       </c>
@@ -1812,7 +1815,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="12" t="s">
         <v>52</v>
       </c>
@@ -1827,7 +1830,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="12" t="s">
         <v>53</v>
       </c>
@@ -1836,7 +1839,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="12" t="s">
         <v>54</v>
       </c>
@@ -1845,7 +1848,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="12" t="s">
         <v>55</v>
       </c>
@@ -1854,7 +1857,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="12" t="s">
         <v>104</v>
       </c>
@@ -1863,7 +1866,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="12" t="s">
         <v>56</v>
       </c>
@@ -1872,7 +1875,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="24"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="16" t="s">
         <v>57</v>
       </c>
@@ -1881,7 +1884,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -1892,7 +1895,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="3" t="s">
         <v>60</v>
       </c>
@@ -1901,7 +1904,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="12" t="s">
         <v>61</v>
       </c>
@@ -1910,8 +1913,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-      <c r="B61" s="29" t="s">
+      <c r="A61" s="24"/>
+      <c r="B61" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -1919,8 +1922,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
-      <c r="B62" s="3" t="s">
+      <c r="A62" s="24"/>
+      <c r="B62" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -1928,8 +1931,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
-      <c r="B63" s="3" t="s">
+      <c r="A63" s="24"/>
+      <c r="B63" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -1937,8 +1940,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="24"/>
+      <c r="B64" s="22" t="s">
         <v>65</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -1946,8 +1949,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="28"/>
-      <c r="B65" s="13" t="s">
+      <c r="A65" s="25"/>
+      <c r="B65" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -1955,7 +1958,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="26" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -1969,7 +1972,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="12" t="s">
         <v>105</v>
       </c>
@@ -1978,7 +1981,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="12" t="s">
         <v>69</v>
       </c>
@@ -1990,7 +1993,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="12" t="s">
         <v>70</v>
       </c>
@@ -1999,7 +2002,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="12" t="s">
         <v>71</v>
       </c>
@@ -2011,7 +2014,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="24"/>
+      <c r="A71" s="27"/>
       <c r="B71" s="16" t="s">
         <v>72</v>
       </c>
@@ -2023,7 +2026,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="23" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -2035,63 +2038,63 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="28"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="26" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -2100,84 +2103,84 @@
       <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="23"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="23"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="23"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="23"/>
+      <c r="A88" s="24"/>
       <c r="B88" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C88" s="5"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
+      <c r="A89" s="24"/>
       <c r="B89" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="23"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="24"/>
+      <c r="A92" s="27"/>
       <c r="B92" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="15" t="s">
@@ -2188,7 +2191,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="23"/>
+      <c r="A94" s="24"/>
       <c r="B94" s="12" t="s">
         <v>98</v>
       </c>
@@ -2197,7 +2200,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
+      <c r="A95" s="24"/>
       <c r="B95" s="12" t="s">
         <v>99</v>
       </c>
@@ -2206,7 +2209,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
+      <c r="A96" s="24"/>
       <c r="B96" s="17" t="s">
         <v>100</v>
       </c>
@@ -2218,7 +2221,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="24"/>
+      <c r="A97" s="27"/>
       <c r="B97" s="16" t="s">
         <v>101</v>
       </c>
@@ -4935,17 +4938,17 @@
     <row r="1000" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A81:A92"/>
-    <mergeCell ref="A93:A97"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A40:A48"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A81:A92"/>
+    <mergeCell ref="A93:A97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/UNIX_junior.xlsx
+++ b/UNIX_junior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Documents\GitHub\Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E79958-282C-477E-8719-ADCF71B3CEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0218C-5CEF-4B2C-A71A-4EA43D04566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C81E76-7942-424A-A782-B9136A08B329}"/>
   </bookViews>
@@ -746,7 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,20 +966,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -988,6 +979,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="B61" sqref="B61:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1325,14 +1325,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1344,7 +1344,7 @@
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
@@ -1376,7 +1376,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="12" t="s">
         <v>103</v>
       </c>
@@ -1388,7 +1388,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1420,7 +1420,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="12" t="s">
         <v>174</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="16" t="s">
         <v>17</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1541,7 +1541,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1550,7 +1550,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1559,7 +1559,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1604,7 +1604,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1613,7 +1613,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="25"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="13" t="s">
         <v>28</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -1633,7 +1633,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="12" t="s">
         <v>34</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="12" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1694,7 +1694,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1703,7 +1703,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -1723,7 +1723,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1750,7 +1750,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
@@ -1768,7 +1768,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -1786,7 +1786,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="25"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="13" t="s">
         <v>48</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -1806,7 +1806,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="12" t="s">
         <v>51</v>
       </c>
@@ -1815,7 +1815,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="12" t="s">
         <v>52</v>
       </c>
@@ -1830,7 +1830,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="12" t="s">
         <v>53</v>
       </c>
@@ -1839,7 +1839,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="12" t="s">
         <v>54</v>
       </c>
@@ -1848,7 +1848,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="12" t="s">
         <v>55</v>
       </c>
@@ -1857,7 +1857,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="12" t="s">
         <v>104</v>
       </c>
@@ -1866,7 +1866,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="12" t="s">
         <v>56</v>
       </c>
@@ -1875,7 +1875,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="27"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="16" t="s">
         <v>57</v>
       </c>
@@ -1884,7 +1884,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="27" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -1895,7 +1895,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="3" t="s">
         <v>60</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="12" t="s">
         <v>61</v>
       </c>
@@ -1913,8 +1913,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -1931,8 +1931,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="22" t="s">
+      <c r="A63" s="23"/>
+      <c r="B63" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -1940,8 +1940,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="22" t="s">
+      <c r="A64" s="23"/>
+      <c r="B64" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -1949,7 +1949,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="25"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="30" t="s">
         <v>66</v>
       </c>
@@ -1958,7 +1958,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -1972,7 +1972,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="12" t="s">
         <v>105</v>
       </c>
@@ -1981,7 +1981,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="12" t="s">
         <v>69</v>
       </c>
@@ -1993,7 +1993,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="12" t="s">
         <v>70</v>
       </c>
@@ -2002,7 +2002,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="12" t="s">
         <v>71</v>
       </c>
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="27"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="16" t="s">
         <v>72</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="27" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -2038,63 +2038,63 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="24"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="24"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="24"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="25"/>
+      <c r="A80" s="28"/>
       <c r="B80" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -2103,84 +2103,84 @@
       <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="24"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="24"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="24"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="24"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="24"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="24"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="24"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C88" s="5"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="24"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="24"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="24"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="27"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="15" t="s">
@@ -2191,7 +2191,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="24"/>
+      <c r="A94" s="23"/>
       <c r="B94" s="12" t="s">
         <v>98</v>
       </c>
@@ -2200,7 +2200,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="24"/>
+      <c r="A95" s="23"/>
       <c r="B95" s="12" t="s">
         <v>99</v>
       </c>
@@ -2209,7 +2209,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="24"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="17" t="s">
         <v>100</v>
       </c>
@@ -2221,7 +2221,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="27"/>
+      <c r="A97" s="24"/>
       <c r="B97" s="16" t="s">
         <v>101</v>
       </c>
@@ -4938,17 +4938,17 @@
     <row r="1000" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A81:A92"/>
+    <mergeCell ref="A93:A97"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A40:A48"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A81:A92"/>
-    <mergeCell ref="A93:A97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/UNIX_junior.xlsx
+++ b/UNIX_junior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Documents\GitHub\Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0218C-5CEF-4B2C-A71A-4EA43D04566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7CA23-7217-42F0-B22D-1D0C16F3E8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C81E76-7942-424A-A782-B9136A08B329}"/>
   </bookViews>
@@ -746,7 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,11 +966,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -979,12 +985,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:B65"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1325,14 +1325,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1520,7 +1520,7 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="16" t="s">
         <v>17</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1613,7 +1613,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="13" t="s">
         <v>28</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -1703,7 +1703,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -1786,7 +1786,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="28"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="13" t="s">
         <v>48</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -1875,7 +1875,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="24"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="16" t="s">
         <v>57</v>
       </c>
@@ -1884,7 +1884,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -1949,7 +1949,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="28"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="30" t="s">
         <v>66</v>
       </c>
@@ -1958,7 +1958,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="24"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="16" t="s">
         <v>72</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -2087,14 +2087,14 @@
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="28"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -2173,14 +2173,14 @@
       <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="24"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="22" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="15" t="s">
@@ -2221,7 +2221,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="24"/>
+      <c r="A97" s="26"/>
       <c r="B97" s="16" t="s">
         <v>101</v>
       </c>
@@ -4938,17 +4938,17 @@
     <row r="1000" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A81:A92"/>
-    <mergeCell ref="A93:A97"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A21:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A40:A48"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A81:A92"/>
+    <mergeCell ref="A93:A97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
